--- a/Team-Data/2008-09/3-7-2008-09.xlsx
+++ b/Team-Data/2008-09/3-7-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.556</v>
+        <v>0.548</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -687,28 +754,28 @@
         <v>78.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O2" t="n">
         <v>18.9</v>
       </c>
       <c r="P2" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
         <v>29.3</v>
@@ -720,7 +787,7 @@
         <v>20.5</v>
       </c>
       <c r="V2" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
@@ -738,13 +805,13 @@
         <v>20.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
@@ -801,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.774</v>
+        <v>0.778</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -869,67 +936,67 @@
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -962,19 +1029,19 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,16 +1053,16 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -1030,52 +1097,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.444</v>
+        <v>0.435</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J4" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
         <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T4" t="n">
         <v>39.5</v>
@@ -1084,7 +1151,7 @@
         <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1093,7 +1160,7 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" t="n">
         <v>22</v>
@@ -1102,16 +1169,16 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1129,16 +1196,16 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1147,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.452</v>
+        <v>0.46</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,10 +1297,10 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,67 +1309,67 @@
         <v>15.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1338,13 +1405,13 @@
         <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC5" t="n">
         <v>18</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -1397,40 +1464,40 @@
         <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.803</v>
+        <v>0.787</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
@@ -1445,46 +1512,46 @@
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1502,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1597,43 +1664,43 @@
         <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
         <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q7" t="n">
         <v>0.82</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
         <v>13.3</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>5.4</v>
@@ -1642,19 +1709,19 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1702,22 +1769,22 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -1842,16 +1909,16 @@
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,13 +1945,13 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
         <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.508</v>
+        <v>0.517</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1967,22 +2034,22 @@
         <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S9" t="n">
         <v>29.8</v>
@@ -1991,13 +2058,13 @@
         <v>40.7</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V9" t="n">
         <v>11.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
         <v>4.7</v>
@@ -2009,16 +2076,16 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2039,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2054,7 +2121,7 @@
         <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2063,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
@@ -2078,10 +2145,10 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2093,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -2122,49 +2189,49 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
         <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="P10" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
         <v>0.783</v>
       </c>
       <c r="R10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.1</v>
@@ -2173,34 +2240,34 @@
         <v>41.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X10" t="n">
         <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.8</v>
+        <v>107.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,25 +2288,25 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2254,10 +2321,10 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -2388,22 +2455,22 @@
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
         <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
@@ -2430,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2451,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>16</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>37</v>
       </c>
       <c r="G12" t="n">
-        <v>0.431</v>
+        <v>0.422</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
@@ -2507,7 +2574,7 @@
         <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
@@ -2519,13 +2586,13 @@
         <v>0.376</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R12" t="n">
         <v>11.4</v>
@@ -2534,16 +2601,16 @@
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>5.2</v>
@@ -2564,10 +2631,10 @@
         <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2603,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>11</v>
@@ -2618,10 +2685,10 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="n">
-        <v>0.238</v>
+        <v>0.242</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
@@ -2689,16 +2756,16 @@
         <v>82</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O13" t="n">
         <v>16.9</v>
@@ -2707,7 +2774,7 @@
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R13" t="n">
         <v>11.2</v>
@@ -2716,13 +2783,13 @@
         <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2740,13 +2807,13 @@
         <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2773,19 +2840,19 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR13" t="n">
         <v>12</v>
@@ -2794,16 +2861,16 @@
         <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW13" t="n">
         <v>20</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.803</v>
+        <v>0.806</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,28 +2944,28 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
         <v>20.5</v>
       </c>
       <c r="P14" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2907,28 +2974,28 @@
         <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2955,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
         <v>17</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,10 +3061,10 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="n">
-        <v>0.262</v>
+        <v>0.267</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J15" t="n">
         <v>77.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.339</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P15" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
         <v>10.6</v>
@@ -3083,13 +3150,13 @@
         <v>39.3</v>
       </c>
       <c r="U15" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
         <v>4.5</v>
@@ -3104,13 +3171,13 @@
         <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC15" t="n">
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3149,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
         <v>33</v>
       </c>
       <c r="F16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.532</v>
+        <v>0.541</v>
       </c>
       <c r="H16" t="n">
         <v>48.2</v>
@@ -3238,28 +3305,28 @@
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
         <v>39.2</v>
@@ -3283,22 +3350,22 @@
         <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3325,13 +3392,13 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP16" t="n">
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3346,25 +3413,25 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
         <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3466,22 @@
         <v>65</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.462</v>
+        <v>0.446</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.448</v>
@@ -3426,52 +3493,52 @@
         <v>16.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z17" t="n">
         <v>24.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,10 +3547,10 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
         <v>18</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -3492,28 +3559,28 @@
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
         <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
@@ -3522,16 +3589,16 @@
         <v>24</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3549,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.29</v>
+        <v>0.295</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,7 +3663,7 @@
         <v>36.8</v>
       </c>
       <c r="J18" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.44</v>
@@ -3605,34 +3672,34 @@
         <v>6.2</v>
       </c>
       <c r="M18" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N18" t="n">
         <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P18" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
@@ -3644,19 +3711,19 @@
         <v>6.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.9</v>
+        <v>-5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3671,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3695,28 +3762,28 @@
         <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
@@ -3880,13 +3947,13 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
@@ -3895,19 +3962,19 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.639</v>
+        <v>0.633</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>7.5</v>
@@ -3972,7 +4039,7 @@
         <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O20" t="n">
         <v>18.6</v>
@@ -3981,19 +4048,19 @@
         <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="R20" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
@@ -4002,37 +4069,37 @@
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y20" t="n">
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4050,16 +4117,16 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
@@ -4068,16 +4135,16 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
         <v>26</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>24</v>
@@ -4086,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
         <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
-        <v>0.41</v>
+        <v>0.417</v>
       </c>
       <c r="H21" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J21" t="n">
-        <v>86.8</v>
+        <v>87</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4154,13 +4221,13 @@
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q21" t="n">
         <v>0.794</v>
@@ -4169,13 +4236,13 @@
         <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T21" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
         <v>14.5</v>
@@ -4187,7 +4254,7 @@
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
         <v>20.6</v>
@@ -4196,19 +4263,19 @@
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4250,13 +4317,13 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>16</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -4306,58 +4373,58 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>0.258</v>
+        <v>0.262</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L22" t="n">
         <v>4.2</v>
       </c>
       <c r="M22" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O22" t="n">
         <v>20.2</v>
       </c>
       <c r="P22" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R22" t="n">
         <v>12.4</v>
       </c>
       <c r="S22" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V22" t="n">
         <v>16.5</v>
@@ -4375,16 +4442,16 @@
         <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.8</v>
+        <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4402,10 +4469,10 @@
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>12</v>
@@ -4435,13 +4502,13 @@
         <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,10 +4517,10 @@
         <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,13 +4648,13 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4623,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
         <v>10</v>
@@ -4632,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
         <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.492</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K24" t="n">
         <v>0.455</v>
@@ -4700,31 +4767,31 @@
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="O24" t="n">
         <v>19.5</v>
       </c>
       <c r="P24" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R24" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S24" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T24" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U24" t="n">
         <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4733,19 +4800,19 @@
         <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="n">
         <v>30</v>
@@ -4754,7 +4821,7 @@
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
@@ -4769,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4787,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,7 +4863,7 @@
         <v>19</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>20</v>
@@ -4805,16 +4872,16 @@
         <v>18</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>1.6</v>
       </c>
       <c r="AD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE25" t="n">
         <v>12</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4969,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>24</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -5037,46 +5104,46 @@
         <v>61</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.639</v>
+        <v>0.623</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
         <v>28.2</v>
@@ -5085,49 +5152,49 @@
         <v>41.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC26" t="n">
         <v>3.8</v>
       </c>
-      <c r="Z26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5139,19 +5206,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,10 +5251,10 @@
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
@@ -5309,22 +5376,22 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
@@ -5339,7 +5406,7 @@
         <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
@@ -5351,13 +5418,13 @@
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -5679,19 +5746,19 @@
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5712,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5721,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5730,10 +5797,10 @@
         <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>3.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5864,13 +5931,13 @@
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5903,7 +5970,7 @@
         <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" t="n">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J31" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.325</v>
+        <v>0.321</v>
       </c>
       <c r="O31" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U31" t="n">
         <v>20.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6016,13 +6083,13 @@
         <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6058,10 +6125,10 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
         <v>24</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6088,10 +6155,10 @@
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-7-2008-09</t>
+          <t>2009-03-07</t>
         </is>
       </c>
     </row>
